--- a/Design/DataTable/UpgradePassiveStat.xlsx
+++ b/Design/DataTable/UpgradePassiveStat.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Documents\GitHub\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -13,8 +13,6 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="UpgradePassiveStat" sheetId="1" r:id="rId4"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <x:sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
@@ -29,19 +27,16 @@
     <x:t>int</x:t>
   </x:si>
   <x:si>
-    <x:t>PassiveType</x:t>
+    <x:t>Increase_Hp</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Emergence</x:t>
+    <x:t>Increase_Passive_Value</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Count</x:t>
   </x:si>
   <x:si>
-    <x:t>Increase_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Increase_Passive_Value</x:t>
+    <x:t>Tower_Emergence</x:t>
   </x:si>
   <x:si>
     <x:t>float</x:t>
@@ -51,6 +46,9 @@
   </x:si>
   <x:si>
     <x:t>Obstacle_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PassiveType</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -137,7 +135,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -814,206 +815,206 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="17.8984375" customWidth="1"/>
-    <x:col min="3" max="3" width="19.6015625" customWidth="1"/>
+    <x:col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="17.8984375" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="19.6015625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="16.399999999999999">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" ht="16.399999999999999">
+      <x:c r="A2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" ht="16.399999999999999">
+      <x:c r="A3" s="2">
+        <x:v>30101</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="2">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" ht="16.399999999999999">
+      <x:c r="A4" s="2">
+        <x:v>30102</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="2">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" ht="16.399999999999999">
+      <x:c r="A5" s="2">
+        <x:v>30103</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C5" s="2">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" ht="16.399999999999999">
+      <x:c r="A6" s="2">
+        <x:v>30104</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C6" s="2">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" ht="16.399999999999999">
+      <x:c r="A7" s="2">
+        <x:v>30201</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="2">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" ht="16.399999999999999">
+      <x:c r="A8" s="2">
+        <x:v>30202</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C8" s="2">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" ht="16.399999999999999">
+      <x:c r="A9" s="2">
+        <x:v>30203</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C9" s="2">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" ht="16.399999999999999">
+      <x:c r="A10" s="2">
+        <x:v>30204</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" ht="16.399999999999999">
+      <x:c r="A11" s="2">
+        <x:v>30301</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" ht="16.399999999999999">
-      <x:c r="A2" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" ht="16.399999999999999">
-      <x:c r="A3" s="1">
-        <x:v>30101</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="C11" s="2">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" ht="16.399999999999999">
+      <x:c r="A12" s="2">
+        <x:v>30302</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" ht="16.399999999999999">
+      <x:c r="A13" s="2">
+        <x:v>30303</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C13" s="2">
+        <x:v>0.29999999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" ht="16.399999999999999">
+      <x:c r="A14" s="2">
+        <x:v>30304</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="2">
+        <x:v>0.40000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3" ht="16.399999999999999">
+      <x:c r="A15" s="2">
+        <x:v>30401</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C3" s="1">
+      <x:c r="C15" s="2">
+        <x:v>0.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" ht="16.399999999999999">
+      <x:c r="A16" s="2">
+        <x:v>30402</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" ht="16.399999999999999">
-      <x:c r="A4" s="1">
-        <x:v>30102</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
+      <x:c r="C16" s="2">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3" ht="16.399999999999999">
+      <x:c r="A17" s="2">
+        <x:v>30403</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C4" s="1">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" ht="16.399999999999999">
-      <x:c r="A5" s="1">
-        <x:v>30103</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="C17" s="2">
+        <x:v>0.14999999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3" ht="16.399999999999999">
+      <x:c r="A18" s="2">
+        <x:v>30404</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="1">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" ht="16.399999999999999">
-      <x:c r="A6" s="1">
-        <x:v>30104</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" ht="16.399999999999999">
-      <x:c r="A7" s="1">
-        <x:v>30201</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3" ht="16.399999999999999">
-      <x:c r="A8" s="1">
-        <x:v>30202</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" ht="16.399999999999999">
-      <x:c r="A9" s="1">
-        <x:v>30203</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3" ht="16.399999999999999">
-      <x:c r="A10" s="1">
-        <x:v>30204</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C10" s="1">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3" ht="16.399999999999999">
-      <x:c r="A11" s="1">
-        <x:v>30301</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C11" s="1">
-        <x:v>0.10000000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3" ht="16.399999999999999">
-      <x:c r="A12" s="1">
-        <x:v>30302</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C12" s="1">
-        <x:v>0.20000000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3" ht="16.399999999999999">
-      <x:c r="A13" s="1">
-        <x:v>30303</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C13" s="1">
-        <x:v>0.29999999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3" ht="16.399999999999999">
-      <x:c r="A14" s="1">
-        <x:v>30304</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C14" s="1">
-        <x:v>0.40000000000000002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3" ht="16.399999999999999">
-      <x:c r="A15" s="1">
-        <x:v>30401</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C15" s="1">
-        <x:v>0.05</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3" ht="16.399999999999999">
-      <x:c r="A16" s="1">
-        <x:v>30402</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C16" s="1">
-        <x:v>0.10000000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3" ht="16.399999999999999">
-      <x:c r="A17" s="1">
-        <x:v>30403</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C17" s="1">
-        <x:v>0.14999999999999999</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3" ht="16.399999999999999">
-      <x:c r="A18" s="1">
-        <x:v>30404</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C18" s="1">
+      <x:c r="C18" s="2">
         <x:v>0.20000000000000001</x:v>
       </x:c>
     </x:row>
@@ -1021,36 +1022,4 @@
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
 </file>